--- a/data/pca/factorExposure/factorExposure_2017-10-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02388388931835111</v>
+        <v>0.0146701153612197</v>
       </c>
       <c r="C2">
-        <v>0.001831230531467665</v>
+        <v>0.03686960098903014</v>
       </c>
       <c r="D2">
-        <v>0.01775113924982437</v>
+        <v>0.02854130100303647</v>
       </c>
       <c r="E2">
-        <v>0.01408587270082715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03383651127235635</v>
+      </c>
+      <c r="F2">
+        <v>0.02437768930759281</v>
+      </c>
+      <c r="G2">
+        <v>0.02091089218835941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01173056242639</v>
+        <v>0.05243351817802509</v>
       </c>
       <c r="C3">
-        <v>0.04578207362752675</v>
+        <v>0.075186817116468</v>
       </c>
       <c r="D3">
-        <v>0.01624802134229038</v>
+        <v>0.01476518790360389</v>
       </c>
       <c r="E3">
-        <v>0.01153003457056083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08899300929155712</v>
+      </c>
+      <c r="F3">
+        <v>0.06636365988790957</v>
+      </c>
+      <c r="G3">
+        <v>0.07125036269674401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02196636472764973</v>
+        <v>0.05609053197575769</v>
       </c>
       <c r="C4">
-        <v>0.01650590866463338</v>
+        <v>0.06198312227811825</v>
       </c>
       <c r="D4">
-        <v>0.0617840926639705</v>
+        <v>0.02279912862737499</v>
       </c>
       <c r="E4">
-        <v>-0.01292263682160062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01407506167549405</v>
+      </c>
+      <c r="F4">
+        <v>0.006789598462457419</v>
+      </c>
+      <c r="G4">
+        <v>0.04722987102486536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01475058131174617</v>
+        <v>0.0329166777250079</v>
       </c>
       <c r="C6">
-        <v>0.02307282504787399</v>
+        <v>0.05293669743377614</v>
       </c>
       <c r="D6">
-        <v>0.08285642157161741</v>
+        <v>0.0160690309830839</v>
       </c>
       <c r="E6">
-        <v>0.001553580718682509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.009874535742510166</v>
+      </c>
+      <c r="F6">
+        <v>0.007799367103181232</v>
+      </c>
+      <c r="G6">
+        <v>0.02727346060775307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01031316975315402</v>
+        <v>0.02015644738302422</v>
       </c>
       <c r="C7">
-        <v>0.006402978609646777</v>
+        <v>0.03573550852478002</v>
       </c>
       <c r="D7">
-        <v>0.03932483802249757</v>
+        <v>0.01261410466336582</v>
       </c>
       <c r="E7">
-        <v>-0.06817815385539804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01070049725239496</v>
+      </c>
+      <c r="F7">
+        <v>0.002893536708272059</v>
+      </c>
+      <c r="G7">
+        <v>0.07952458832385849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>4.244313613767583e-06</v>
+        <v>-0.001862725368132269</v>
       </c>
       <c r="C8">
-        <v>-0.007277006296863884</v>
+        <v>0.01488354238653753</v>
       </c>
       <c r="D8">
-        <v>0.01735669636204684</v>
+        <v>0.003728137112243552</v>
       </c>
       <c r="E8">
-        <v>-0.004463289317386698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0103203482983578</v>
+      </c>
+      <c r="F8">
+        <v>0.02089217577587948</v>
+      </c>
+      <c r="G8">
+        <v>0.02177354014850753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01437354935785322</v>
+        <v>0.02883421340108301</v>
       </c>
       <c r="C9">
-        <v>0.01820783889420933</v>
+        <v>0.04163856352144525</v>
       </c>
       <c r="D9">
-        <v>0.04493863766848488</v>
+        <v>0.0158319016816253</v>
       </c>
       <c r="E9">
-        <v>-0.002393441722629438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01522052909877907</v>
+      </c>
+      <c r="F9">
+        <v>0.0148552739650157</v>
+      </c>
+      <c r="G9">
+        <v>0.03884829425685202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008502201466275153</v>
+        <v>0.08954121811164553</v>
       </c>
       <c r="C10">
-        <v>0.1457495109468502</v>
+        <v>-0.1858686718255708</v>
       </c>
       <c r="D10">
-        <v>-0.1328073265107009</v>
+        <v>-0.0192927382077677</v>
       </c>
       <c r="E10">
-        <v>-0.01791063134473892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01638282917207681</v>
+      </c>
+      <c r="F10">
+        <v>-0.01313472860625654</v>
+      </c>
+      <c r="G10">
+        <v>0.04045970546148307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.146120673448613e-05</v>
+        <v>0.03531112571149197</v>
       </c>
       <c r="C11">
-        <v>0.005500838504928984</v>
+        <v>0.05381091275073075</v>
       </c>
       <c r="D11">
-        <v>0.04527369194609961</v>
+        <v>0.001908280299827364</v>
       </c>
       <c r="E11">
-        <v>0.01284859189988088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003380686865406123</v>
+      </c>
+      <c r="F11">
+        <v>0.01998982072732801</v>
+      </c>
+      <c r="G11">
+        <v>0.02131952876997022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005345464009387409</v>
+        <v>0.03236812176685135</v>
       </c>
       <c r="C12">
-        <v>0.01499759567237659</v>
+        <v>0.04488747028015851</v>
       </c>
       <c r="D12">
-        <v>0.04749149456829455</v>
+        <v>0.005852930381490989</v>
       </c>
       <c r="E12">
-        <v>0.00422383080814419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003889360556693572</v>
+      </c>
+      <c r="F12">
+        <v>0.004302043429509302</v>
+      </c>
+      <c r="G12">
+        <v>0.02547082232359912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02125939332304123</v>
+        <v>0.01365866242814035</v>
       </c>
       <c r="C13">
-        <v>0.01650231837592367</v>
+        <v>0.03234594815026318</v>
       </c>
       <c r="D13">
-        <v>0.01065397315349748</v>
+        <v>0.02488445992627717</v>
       </c>
       <c r="E13">
-        <v>0.008643024335546647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02498727090332764</v>
+      </c>
+      <c r="F13">
+        <v>0.01284987367740656</v>
+      </c>
+      <c r="G13">
+        <v>0.03226330810281576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006956037634067158</v>
+        <v>0.008851875043246561</v>
       </c>
       <c r="C14">
-        <v>0.01372669546914008</v>
+        <v>0.02671171947525542</v>
       </c>
       <c r="D14">
-        <v>0.01774050875828249</v>
+        <v>0.008544915467787531</v>
       </c>
       <c r="E14">
-        <v>-0.009245863949933509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004887703753488486</v>
+      </c>
+      <c r="F14">
+        <v>-0.002461059223507889</v>
+      </c>
+      <c r="G14">
+        <v>0.03997509251083119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005157488438664325</v>
+        <v>0.03149086687717588</v>
       </c>
       <c r="C16">
-        <v>0.01216860055612858</v>
+        <v>0.04384489114053126</v>
       </c>
       <c r="D16">
-        <v>0.05180825756668733</v>
+        <v>0.001461810416901482</v>
       </c>
       <c r="E16">
-        <v>0.007513633490788475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004636700942409228</v>
+      </c>
+      <c r="F16">
+        <v>0.007560131965821103</v>
+      </c>
+      <c r="G16">
+        <v>0.02430922737086135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01236948151025475</v>
+        <v>0.03016728359432491</v>
       </c>
       <c r="C19">
-        <v>0.02106302967210693</v>
+        <v>0.05108341515364836</v>
       </c>
       <c r="D19">
-        <v>0.02799964105711571</v>
+        <v>0.01578732070896745</v>
       </c>
       <c r="E19">
-        <v>-0.003261203362074209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0507585284309653</v>
+      </c>
+      <c r="F19">
+        <v>0.03122812888185207</v>
+      </c>
+      <c r="G19">
+        <v>0.04596936985109329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01031453357127405</v>
+        <v>0.01290746517512026</v>
       </c>
       <c r="C20">
-        <v>0.005833390284197583</v>
+        <v>0.03455847948748419</v>
       </c>
       <c r="D20">
-        <v>0.01547307397948227</v>
+        <v>0.01314594853282335</v>
       </c>
       <c r="E20">
-        <v>0.002952936915664467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02532990718078159</v>
+      </c>
+      <c r="F20">
+        <v>-0.0007316172257919989</v>
+      </c>
+      <c r="G20">
+        <v>0.03726472429849046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01341928460035054</v>
+        <v>0.01587730219064137</v>
       </c>
       <c r="C21">
-        <v>0.03665661719918321</v>
+        <v>0.03477006785003948</v>
       </c>
       <c r="D21">
-        <v>0.01530093593543375</v>
+        <v>0.0162041428548873</v>
       </c>
       <c r="E21">
-        <v>-0.01792607704874137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03281863384281734</v>
+      </c>
+      <c r="F21">
+        <v>0.008193248221372939</v>
+      </c>
+      <c r="G21">
+        <v>0.05933461279032531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004635703509034028</v>
+        <v>0.02670573160344014</v>
       </c>
       <c r="C24">
-        <v>0.006869091060825081</v>
+        <v>0.04665230958641474</v>
       </c>
       <c r="D24">
-        <v>0.04564788989498916</v>
+        <v>0.006696492709270606</v>
       </c>
       <c r="E24">
-        <v>0.007692525781592753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001346318195282329</v>
+      </c>
+      <c r="F24">
+        <v>0.01504650315973826</v>
+      </c>
+      <c r="G24">
+        <v>0.02503556868655608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01082910848976101</v>
+        <v>0.04386064207635208</v>
       </c>
       <c r="C25">
-        <v>0.02463833584584698</v>
+        <v>0.05336731593376774</v>
       </c>
       <c r="D25">
-        <v>0.04426856963077125</v>
+        <v>0.01053403815206942</v>
       </c>
       <c r="E25">
-        <v>0.006980314229900766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006127441672171724</v>
+      </c>
+      <c r="F25">
+        <v>0.01034440499784296</v>
+      </c>
+      <c r="G25">
+        <v>0.03076011834545544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02271703721067882</v>
+        <v>0.009488862719590889</v>
       </c>
       <c r="C26">
-        <v>0.0085030466522731</v>
+        <v>0.009437062171706491</v>
       </c>
       <c r="D26">
-        <v>-0.003453790969194797</v>
+        <v>0.02359404251571645</v>
       </c>
       <c r="E26">
-        <v>-0.006974618210494559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009558982113155083</v>
+      </c>
+      <c r="F26">
+        <v>-0.0004426721483468763</v>
+      </c>
+      <c r="G26">
+        <v>0.02975690065770394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02550448434436387</v>
+        <v>0.115557458743373</v>
       </c>
       <c r="C28">
-        <v>0.2172471840850655</v>
+        <v>-0.22955830942477</v>
       </c>
       <c r="D28">
-        <v>-0.189875948822706</v>
+        <v>-0.01054316448711344</v>
       </c>
       <c r="E28">
-        <v>-0.02930578751224192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00587914336765096</v>
+      </c>
+      <c r="F28">
+        <v>-0.005228966078708594</v>
+      </c>
+      <c r="G28">
+        <v>0.05715671220435034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007145504378463586</v>
+        <v>0.0138453632665592</v>
       </c>
       <c r="C29">
-        <v>0.01879069460558829</v>
+        <v>0.02037872663917346</v>
       </c>
       <c r="D29">
-        <v>0.01471294211797178</v>
+        <v>0.007167237326435169</v>
       </c>
       <c r="E29">
-        <v>-0.005022097650843975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.005039455475381041</v>
+      </c>
+      <c r="F29">
+        <v>-0.0132962342744838</v>
+      </c>
+      <c r="G29">
+        <v>0.03015724785520912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02366181873266753</v>
+        <v>0.04531195354772629</v>
       </c>
       <c r="C30">
-        <v>0.008592769242384328</v>
+        <v>0.06886639960553484</v>
       </c>
       <c r="D30">
-        <v>0.06443675363885369</v>
+        <v>0.02721532853515373</v>
       </c>
       <c r="E30">
-        <v>0.06294280543005945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03791766729478577</v>
+      </c>
+      <c r="F30">
+        <v>0.0418607400594759</v>
+      </c>
+      <c r="G30">
+        <v>0.006991977421854155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006525108730611701</v>
+        <v>0.04557028699060676</v>
       </c>
       <c r="C31">
-        <v>0.04615838300586488</v>
+        <v>0.03096644748984814</v>
       </c>
       <c r="D31">
-        <v>0.0417200740094039</v>
+        <v>0.003276142810244881</v>
       </c>
       <c r="E31">
-        <v>-0.001041481693862993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007281021685800094</v>
+      </c>
+      <c r="F31">
+        <v>-0.03670194085233986</v>
+      </c>
+      <c r="G31">
+        <v>0.02710599485312709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007136775541860405</v>
+        <v>0.00416772237900111</v>
       </c>
       <c r="C32">
-        <v>0.01531049155734267</v>
+        <v>0.03538694664840715</v>
       </c>
       <c r="D32">
-        <v>0.00757562464191256</v>
+        <v>-0.004109081657443448</v>
       </c>
       <c r="E32">
-        <v>-0.02520655322044722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0150279525527797</v>
+      </c>
+      <c r="F32">
+        <v>0.05879244419520874</v>
+      </c>
+      <c r="G32">
+        <v>0.05391248365392091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01187648541800711</v>
+        <v>0.02810518823129795</v>
       </c>
       <c r="C33">
-        <v>0.02319453567003806</v>
+        <v>0.05047124504772019</v>
       </c>
       <c r="D33">
-        <v>0.02385883473725235</v>
+        <v>0.01440835803089134</v>
       </c>
       <c r="E33">
-        <v>0.02647887065727712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02468616973425941</v>
+      </c>
+      <c r="F33">
+        <v>0.02494248207078757</v>
+      </c>
+      <c r="G33">
+        <v>0.03227969622301152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005196134490833128</v>
+        <v>0.04466837587251925</v>
       </c>
       <c r="C34">
-        <v>0.01955565944927599</v>
+        <v>0.05453535716605216</v>
       </c>
       <c r="D34">
-        <v>0.05035608643966801</v>
+        <v>-0.005358240724973657</v>
       </c>
       <c r="E34">
-        <v>-0.0008129888467381967</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.00779153227718833</v>
+      </c>
+      <c r="F34">
+        <v>0.02083303600058813</v>
+      </c>
+      <c r="G34">
+        <v>0.0367619762655934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01147767482543738</v>
+        <v>0.01132592909506461</v>
       </c>
       <c r="C36">
-        <v>0.01761165086053739</v>
+        <v>0.006861025896239027</v>
       </c>
       <c r="D36">
-        <v>0.002221607812870049</v>
+        <v>0.01130504735166693</v>
       </c>
       <c r="E36">
-        <v>-0.001790939450497004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004828584719689563</v>
+      </c>
+      <c r="F36">
+        <v>-0.004034612590137027</v>
+      </c>
+      <c r="G36">
+        <v>0.02438787823569526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006565900321140249</v>
+        <v>0.03316936996625575</v>
       </c>
       <c r="C38">
-        <v>0.02601561557389014</v>
+        <v>0.02531317151951056</v>
       </c>
       <c r="D38">
-        <v>0.02515423326899955</v>
+        <v>-0.007884008580313221</v>
       </c>
       <c r="E38">
-        <v>-6.556182970717168e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004888549669625726</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003528707056189924</v>
+      </c>
+      <c r="G38">
+        <v>0.03140397477620154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005822657063776192</v>
+        <v>0.03324730715031381</v>
       </c>
       <c r="C39">
-        <v>-0.01624527150557544</v>
+        <v>0.08143967664247286</v>
       </c>
       <c r="D39">
-        <v>0.09702316095104474</v>
+        <v>0.01217113757982052</v>
       </c>
       <c r="E39">
-        <v>0.01563736532893438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02394556865671726</v>
+      </c>
+      <c r="F39">
+        <v>0.03546558069224807</v>
+      </c>
+      <c r="G39">
+        <v>0.02753096941578144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01046372565676434</v>
+        <v>0.02158295063321363</v>
       </c>
       <c r="C40">
-        <v>0.01814787674846819</v>
+        <v>0.03052426377604934</v>
       </c>
       <c r="D40">
-        <v>0.04018694713775275</v>
+        <v>0.01294382690885244</v>
       </c>
       <c r="E40">
-        <v>0.01169330774651324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01890231806974447</v>
+      </c>
+      <c r="F40">
+        <v>0.01874295418171896</v>
+      </c>
+      <c r="G40">
+        <v>0.02350663746463831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004830229577636837</v>
+        <v>0.01233373842354405</v>
       </c>
       <c r="C41">
-        <v>0.01990536671081984</v>
+        <v>-0.001227368027340793</v>
       </c>
       <c r="D41">
-        <v>-0.006898909977277663</v>
+        <v>0.003485185889124727</v>
       </c>
       <c r="E41">
-        <v>-0.002621091509237451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009570086304930618</v>
+      </c>
+      <c r="F41">
+        <v>-0.00204688863696797</v>
+      </c>
+      <c r="G41">
+        <v>0.01614997366595022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0910203856784729</v>
+        <v>0.02130158050606906</v>
       </c>
       <c r="C42">
-        <v>0.005816200637148066</v>
+        <v>0.04692082059297263</v>
       </c>
       <c r="D42">
-        <v>0.2284762219646674</v>
+        <v>0.09726056696046401</v>
       </c>
       <c r="E42">
-        <v>0.2850967717456596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04427554031880572</v>
+      </c>
+      <c r="F42">
+        <v>-0.0533342598559066</v>
+      </c>
+      <c r="G42">
+        <v>-0.1833241657189664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005720923936487704</v>
+        <v>0.02836088402289542</v>
       </c>
       <c r="C43">
-        <v>0.0208812546455256</v>
+        <v>0.007617529323977435</v>
       </c>
       <c r="D43">
-        <v>-0.01234310778402184</v>
+        <v>0.00373986431361122</v>
       </c>
       <c r="E43">
-        <v>0.0008139787919705957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.006578220986456505</v>
+      </c>
+      <c r="F43">
+        <v>-0.002672528327603887</v>
+      </c>
+      <c r="G43">
+        <v>0.02217697930618498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002871381323299442</v>
+        <v>0.01699572818640434</v>
       </c>
       <c r="C44">
-        <v>-0.002755169239339411</v>
+        <v>0.04751432947010115</v>
       </c>
       <c r="D44">
-        <v>0.02935749252906712</v>
+        <v>0.0065264339979886</v>
       </c>
       <c r="E44">
-        <v>-0.002022750643490959</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01703064036580365</v>
+      </c>
+      <c r="F44">
+        <v>0.01808388109733738</v>
+      </c>
+      <c r="G44">
+        <v>0.03708211873869406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01039177856742344</v>
+        <v>0.005451765151263683</v>
       </c>
       <c r="C46">
-        <v>0.01839714630197989</v>
+        <v>0.01628285366411567</v>
       </c>
       <c r="D46">
-        <v>0.01774261075208897</v>
+        <v>0.01160896966334097</v>
       </c>
       <c r="E46">
-        <v>0.004462177785939293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0005823664616853851</v>
+      </c>
+      <c r="F46">
+        <v>-0.01439150088888952</v>
+      </c>
+      <c r="G46">
+        <v>0.02657525018048729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0001635656742124922</v>
+        <v>0.07407606124272359</v>
       </c>
       <c r="C47">
-        <v>0.06090351462398401</v>
+        <v>0.0632882102978662</v>
       </c>
       <c r="D47">
-        <v>0.04896823162086641</v>
+        <v>-0.005042000345982875</v>
       </c>
       <c r="E47">
-        <v>0.008465084717234218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01335048284253624</v>
+      </c>
+      <c r="F47">
+        <v>-0.05639806967916142</v>
+      </c>
+      <c r="G47">
+        <v>0.02496310568559868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002281336957699958</v>
+        <v>0.02193636838689061</v>
       </c>
       <c r="C48">
-        <v>0.02772564127229598</v>
+        <v>0.008990656061836376</v>
       </c>
       <c r="D48">
-        <v>0.01099425595888749</v>
+        <v>0.000533267261000359</v>
       </c>
       <c r="E48">
-        <v>0.0009483939913438362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001891348569637615</v>
+      </c>
+      <c r="F48">
+        <v>-0.01585015437565235</v>
+      </c>
+      <c r="G48">
+        <v>0.02918845843050288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001666712025317049</v>
+        <v>0.08102809851360442</v>
       </c>
       <c r="C50">
-        <v>0.05120562372946785</v>
+        <v>0.06389898821734695</v>
       </c>
       <c r="D50">
-        <v>0.06278213066613939</v>
+        <v>-0.003948073741658676</v>
       </c>
       <c r="E50">
-        <v>-0.01642418354886985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01007189219316261</v>
+      </c>
+      <c r="F50">
+        <v>-0.05509796257889556</v>
+      </c>
+      <c r="G50">
+        <v>0.04730780174026493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00691815080438236</v>
+        <v>0.01252947597199863</v>
       </c>
       <c r="C51">
-        <v>0.0199037324909546</v>
+        <v>0.02847834175296527</v>
       </c>
       <c r="D51">
-        <v>-0.01210790297945736</v>
+        <v>0.009024741175547473</v>
       </c>
       <c r="E51">
-        <v>-0.009315756464768576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.0118254234108309</v>
+      </c>
+      <c r="F51">
+        <v>0.02563638697759517</v>
+      </c>
+      <c r="G51">
+        <v>0.05156157361578767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002876725607988887</v>
+        <v>0.09527363948324367</v>
       </c>
       <c r="C53">
-        <v>0.0834557014119743</v>
+        <v>0.07848314040386903</v>
       </c>
       <c r="D53">
-        <v>0.1044252029503258</v>
+        <v>-0.005616563318933942</v>
       </c>
       <c r="E53">
-        <v>0.00587857065934129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03744184642923266</v>
+      </c>
+      <c r="F53">
+        <v>-0.0619141464376722</v>
+      </c>
+      <c r="G53">
+        <v>0.02455116158927357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001615640957180967</v>
+        <v>0.02963369373433501</v>
       </c>
       <c r="C54">
-        <v>0.03478667083382257</v>
+        <v>0.006878755425053284</v>
       </c>
       <c r="D54">
-        <v>-0.01001754184416806</v>
+        <v>-0.003428661223713177</v>
       </c>
       <c r="E54">
-        <v>-0.01109284871566597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005781491931656741</v>
+      </c>
+      <c r="F54">
+        <v>-0.003458299961573267</v>
+      </c>
+      <c r="G54">
+        <v>0.03489433698486342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0007525026371801043</v>
+        <v>0.07391026861350682</v>
       </c>
       <c r="C55">
-        <v>0.06033297355416191</v>
+        <v>0.07284010313892333</v>
       </c>
       <c r="D55">
-        <v>0.08976733139866772</v>
+        <v>-0.004656552854845314</v>
       </c>
       <c r="E55">
-        <v>0.01644059994525846</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02775606965489892</v>
+      </c>
+      <c r="F55">
+        <v>-0.05906197925525587</v>
+      </c>
+      <c r="G55">
+        <v>0.01151016457012367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0005346170928005821</v>
+        <v>0.1435391066342876</v>
       </c>
       <c r="C56">
-        <v>0.1050240377342923</v>
+        <v>0.1024105152935554</v>
       </c>
       <c r="D56">
-        <v>0.1330604998913863</v>
+        <v>-0.01373989454311337</v>
       </c>
       <c r="E56">
-        <v>0.01828870916724416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04205141349600138</v>
+      </c>
+      <c r="F56">
+        <v>-0.09477649043532688</v>
+      </c>
+      <c r="G56">
+        <v>-0.0002414804930538296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02264495594514003</v>
+        <v>0.01174331522141404</v>
       </c>
       <c r="C57">
-        <v>0.01879604015334264</v>
+        <v>0.01086022143607986</v>
       </c>
       <c r="D57">
-        <v>0.03818856195374323</v>
+        <v>0.02358860545310713</v>
       </c>
       <c r="E57">
-        <v>0.01270734894724414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02837726988342381</v>
+      </c>
+      <c r="F57">
+        <v>0.01629517608712346</v>
+      </c>
+      <c r="G57">
+        <v>0.01996226143627879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008363680896458833</v>
+        <v>0.08053411053197486</v>
       </c>
       <c r="C58">
-        <v>0.08947836742231843</v>
+        <v>0.0518741798864629</v>
       </c>
       <c r="D58">
-        <v>0.09654290744713062</v>
+        <v>0.01860993972585981</v>
       </c>
       <c r="E58">
-        <v>0.2192308629435354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9499158707827393</v>
+      </c>
+      <c r="F58">
+        <v>-0.2078365531674886</v>
+      </c>
+      <c r="G58">
+        <v>0.004518995634828454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02183864070794995</v>
+        <v>0.15116164748018</v>
       </c>
       <c r="C59">
-        <v>0.2260712007748738</v>
+        <v>-0.212380755209949</v>
       </c>
       <c r="D59">
-        <v>-0.1892340901587558</v>
+        <v>-0.01695993614282758</v>
       </c>
       <c r="E59">
-        <v>-0.004378251925780629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01233433969655006</v>
+      </c>
+      <c r="F59">
+        <v>0.009666295405978543</v>
+      </c>
+      <c r="G59">
+        <v>0.02131387717117084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02810485969020964</v>
+        <v>0.2904828100274934</v>
       </c>
       <c r="C60">
-        <v>0.1652618700331029</v>
+        <v>0.08865037580619976</v>
       </c>
       <c r="D60">
-        <v>0.07570636768516584</v>
+        <v>0.008468078278195384</v>
       </c>
       <c r="E60">
-        <v>0.05161046087423982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00425982633664244</v>
+      </c>
+      <c r="F60">
+        <v>0.3736092413005352</v>
+      </c>
+      <c r="G60">
+        <v>-0.08624825473396036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002709977120394478</v>
+        <v>0.03350728733548097</v>
       </c>
       <c r="C61">
-        <v>0.009768093774160148</v>
+        <v>0.06373664481933317</v>
       </c>
       <c r="D61">
-        <v>0.06684591478472171</v>
+        <v>0.00529780064847827</v>
       </c>
       <c r="E61">
-        <v>0.01015270889473786</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01130671644086806</v>
+      </c>
+      <c r="F61">
+        <v>0.01933609062653471</v>
+      </c>
+      <c r="G61">
+        <v>0.02504151526755661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007019031983016643</v>
+        <v>0.01466022697777946</v>
       </c>
       <c r="C63">
-        <v>0.00814459635760395</v>
+        <v>0.02677704505343415</v>
       </c>
       <c r="D63">
-        <v>0.01119258745711299</v>
+        <v>0.007923559587698486</v>
       </c>
       <c r="E63">
-        <v>-0.005843283054608292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003198200072013235</v>
+      </c>
+      <c r="F63">
+        <v>-0.01199204596578231</v>
+      </c>
+      <c r="G63">
+        <v>0.03503257696621889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006463558770444281</v>
+        <v>0.04979153628934059</v>
       </c>
       <c r="C64">
-        <v>0.03466088325581293</v>
+        <v>0.0366832943790951</v>
       </c>
       <c r="D64">
-        <v>0.06452535447211818</v>
+        <v>0.00485654804180297</v>
       </c>
       <c r="E64">
-        <v>0.01305670513475927</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004379262749526712</v>
+      </c>
+      <c r="F64">
+        <v>0.005473164163799423</v>
+      </c>
+      <c r="G64">
+        <v>0.02272946594816777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01707947907302822</v>
+        <v>0.08447081521168827</v>
       </c>
       <c r="C65">
-        <v>0.02928556345674401</v>
+        <v>0.06414125867396366</v>
       </c>
       <c r="D65">
-        <v>0.09311002554767563</v>
+        <v>0.01482098970469901</v>
       </c>
       <c r="E65">
-        <v>0.004536022950570585</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.008572840259190513</v>
+      </c>
+      <c r="F65">
+        <v>0.02581721479997694</v>
+      </c>
+      <c r="G65">
+        <v>0.01173550395374135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00532449216498254</v>
+        <v>0.05386621127412138</v>
       </c>
       <c r="C66">
-        <v>-0.005047710434666814</v>
+        <v>0.1145423469900003</v>
       </c>
       <c r="D66">
-        <v>0.1183973260216406</v>
+        <v>0.01175709069848796</v>
       </c>
       <c r="E66">
-        <v>0.03278809560723909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02509520338975542</v>
+      </c>
+      <c r="F66">
+        <v>0.04406403744893475</v>
+      </c>
+      <c r="G66">
+        <v>0.01864497833770204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001659353683875364</v>
+        <v>0.05623084303275506</v>
       </c>
       <c r="C67">
-        <v>0.04455277792916194</v>
+        <v>0.02943094132630331</v>
       </c>
       <c r="D67">
-        <v>0.0275329506003457</v>
+        <v>-0.006236051582615755</v>
       </c>
       <c r="E67">
-        <v>0.002397783277644905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003671251241356862</v>
+      </c>
+      <c r="F67">
+        <v>-0.0006123065796608253</v>
+      </c>
+      <c r="G67">
+        <v>0.0293729135982277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03920332614006355</v>
+        <v>0.1352327340325677</v>
       </c>
       <c r="C68">
-        <v>0.1923324023256806</v>
+        <v>-0.2730295256414513</v>
       </c>
       <c r="D68">
-        <v>-0.1820330033720917</v>
+        <v>0.0006016299360981838</v>
       </c>
       <c r="E68">
-        <v>-0.00183379456471422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01266687557924316</v>
+      </c>
+      <c r="F68">
+        <v>-0.02545978549998392</v>
+      </c>
+      <c r="G68">
+        <v>0.01974332042459668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003747601924414864</v>
+        <v>0.0783681835833831</v>
       </c>
       <c r="C69">
-        <v>0.04796657870552422</v>
+        <v>0.06426413167633938</v>
       </c>
       <c r="D69">
-        <v>0.05452673269596127</v>
+        <v>-0.009082857912171229</v>
       </c>
       <c r="E69">
-        <v>0.003330406203747286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02970759463001668</v>
+      </c>
+      <c r="F69">
+        <v>-0.04273676482312047</v>
+      </c>
+      <c r="G69">
+        <v>0.02658023893692906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02715624460356175</v>
+        <v>0.1300346502111687</v>
       </c>
       <c r="C71">
-        <v>0.1724295336290909</v>
+        <v>-0.2298069582294889</v>
       </c>
       <c r="D71">
-        <v>-0.160362821010965</v>
+        <v>-0.007938053335338324</v>
       </c>
       <c r="E71">
-        <v>-0.01340334387844552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02387787104025308</v>
+      </c>
+      <c r="F71">
+        <v>-0.01785222969206848</v>
+      </c>
+      <c r="G71">
+        <v>0.03398083824672829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003206597584254442</v>
+        <v>0.08354337050910979</v>
       </c>
       <c r="C72">
-        <v>0.05188776924334881</v>
+        <v>0.07292278704600669</v>
       </c>
       <c r="D72">
-        <v>0.1377704192817303</v>
+        <v>-0.008774256725220869</v>
       </c>
       <c r="E72">
-        <v>0.03524845028584433</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0132373809747035</v>
+      </c>
+      <c r="F72">
+        <v>0.03986436921043694</v>
+      </c>
+      <c r="G72">
+        <v>0.008699954152704695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04164034612292757</v>
+        <v>0.3998551778920359</v>
       </c>
       <c r="C73">
-        <v>0.1966329649204135</v>
+        <v>0.1018147406996295</v>
       </c>
       <c r="D73">
-        <v>0.1391684059023901</v>
+        <v>0.0138285444483847</v>
       </c>
       <c r="E73">
-        <v>0.1172042638569322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04968271315452553</v>
+      </c>
+      <c r="F73">
+        <v>0.5475439150687288</v>
+      </c>
+      <c r="G73">
+        <v>-0.1376171212068525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001701541661536528</v>
+        <v>0.118689089022843</v>
       </c>
       <c r="C74">
-        <v>0.09921633340056028</v>
+        <v>0.1161240132670672</v>
       </c>
       <c r="D74">
-        <v>0.1303503042842476</v>
+        <v>-0.01036822849525348</v>
       </c>
       <c r="E74">
-        <v>0.02553034341131501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02327243994937335</v>
+      </c>
+      <c r="F74">
+        <v>-0.08505276235756645</v>
+      </c>
+      <c r="G74">
+        <v>0.0317335521614211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.001031637646143287</v>
+        <v>0.2608115222785301</v>
       </c>
       <c r="C75">
-        <v>0.2301892305666413</v>
+        <v>0.1495923987617792</v>
       </c>
       <c r="D75">
-        <v>0.221571147204766</v>
+        <v>-0.03134828770215584</v>
       </c>
       <c r="E75">
-        <v>0.0530158958165123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06930026478630133</v>
+      </c>
+      <c r="F75">
+        <v>-0.2090274748227982</v>
+      </c>
+      <c r="G75">
+        <v>-0.03926993046361102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00625643905935751</v>
+        <v>0.1383978381802761</v>
       </c>
       <c r="C76">
-        <v>0.1710961999294235</v>
+        <v>0.1238215154383987</v>
       </c>
       <c r="D76">
-        <v>0.2111080965508986</v>
+        <v>-0.02146749842213515</v>
       </c>
       <c r="E76">
-        <v>0.01810740803057419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0638704155402889</v>
+      </c>
+      <c r="F76">
+        <v>-0.1345772422164986</v>
+      </c>
+      <c r="G76">
+        <v>0.01198851892371104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01192694403385683</v>
+        <v>0.06332916385060565</v>
       </c>
       <c r="C77">
-        <v>0.01579913124642157</v>
+        <v>0.06309126744322274</v>
       </c>
       <c r="D77">
-        <v>0.06367009853744278</v>
+        <v>0.01269146412068337</v>
       </c>
       <c r="E77">
-        <v>0.01147955024078139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04754959072865073</v>
+      </c>
+      <c r="F77">
+        <v>0.01580395131428618</v>
+      </c>
+      <c r="G77">
+        <v>0.05008659213949307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004022813520338904</v>
+        <v>0.03951663055047114</v>
       </c>
       <c r="C78">
-        <v>0.01673064490033867</v>
+        <v>0.04978841185297432</v>
       </c>
       <c r="D78">
-        <v>0.06213233117681796</v>
+        <v>0.005577017926444915</v>
       </c>
       <c r="E78">
-        <v>0.00699083028994983</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01911354811812338</v>
+      </c>
+      <c r="F78">
+        <v>0.04317771873876841</v>
+      </c>
+      <c r="G78">
+        <v>0.03482809394503956</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01322184973056211</v>
+        <v>0.06094494221152223</v>
       </c>
       <c r="C80">
-        <v>0.158026755157999</v>
+        <v>0.06642956137784441</v>
       </c>
       <c r="D80">
-        <v>0.2403278855960265</v>
+        <v>0.01174381120266926</v>
       </c>
       <c r="E80">
-        <v>-0.8926909965326578</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03659448217770787</v>
+      </c>
+      <c r="F80">
+        <v>0.04458112465576988</v>
+      </c>
+      <c r="G80">
+        <v>0.9121995309591573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>5.29802809077029e-05</v>
+        <v>0.1459602095959344</v>
       </c>
       <c r="C81">
-        <v>0.1457802036526995</v>
+        <v>0.09192047056397736</v>
       </c>
       <c r="D81">
-        <v>0.1448592662204594</v>
+        <v>-0.01620583129593341</v>
       </c>
       <c r="E81">
-        <v>0.02478617261250091</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03855272601117004</v>
+      </c>
+      <c r="F81">
+        <v>-0.1360759278927831</v>
+      </c>
+      <c r="G81">
+        <v>0.01361186652088701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05436901234325031</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0373005650162622</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002914415489918136</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01822579416785409</v>
+      </c>
+      <c r="F82">
+        <v>-0.007626168901517174</v>
+      </c>
+      <c r="G82">
+        <v>-0.006528696564949492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006361089026450173</v>
+        <v>0.02842555166468525</v>
       </c>
       <c r="C83">
-        <v>0.03073267500640849</v>
+        <v>0.02072297631651009</v>
       </c>
       <c r="D83">
-        <v>0.02423365174773425</v>
+        <v>0.005252679834387981</v>
       </c>
       <c r="E83">
-        <v>0.009821300363642406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02458136779821956</v>
+      </c>
+      <c r="F83">
+        <v>0.01998682660804903</v>
+      </c>
+      <c r="G83">
+        <v>0.02284498780776312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007720852457089668</v>
+        <v>0.2354228864589575</v>
       </c>
       <c r="C85">
-        <v>0.1789763273808987</v>
+        <v>0.1487071860508398</v>
       </c>
       <c r="D85">
-        <v>0.2362917070319977</v>
+        <v>-0.01967231995496713</v>
       </c>
       <c r="E85">
-        <v>0.05678884284963614</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1182241156614261</v>
+      </c>
+      <c r="F85">
+        <v>-0.1820376865984635</v>
+      </c>
+      <c r="G85">
+        <v>-0.06058258762837791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00535803524495664</v>
+        <v>0.01174457788798614</v>
       </c>
       <c r="C86">
-        <v>0.01338839348164554</v>
+        <v>0.02007852352725427</v>
       </c>
       <c r="D86">
-        <v>0.008033155430255045</v>
+        <v>0.009665458178230179</v>
       </c>
       <c r="E86">
-        <v>0.01894891246852382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03629103185961523</v>
+      </c>
+      <c r="F86">
+        <v>0.02543204571699435</v>
+      </c>
+      <c r="G86">
+        <v>0.05105026627367765</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006972781127209417</v>
+        <v>0.01607427097292255</v>
       </c>
       <c r="C87">
-        <v>0.01184844014499767</v>
+        <v>0.02800634887977092</v>
       </c>
       <c r="D87">
-        <v>0.03881291475750952</v>
+        <v>0.01168161712586906</v>
       </c>
       <c r="E87">
-        <v>0.01133644925825248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07338972954086043</v>
+      </c>
+      <c r="F87">
+        <v>0.04682249374012079</v>
+      </c>
+      <c r="G87">
+        <v>0.04248930165502805</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02561303518887159</v>
+        <v>0.08977098513257413</v>
       </c>
       <c r="C88">
-        <v>0.04348761819917392</v>
+        <v>0.05961510739266788</v>
       </c>
       <c r="D88">
-        <v>0.02719580071771906</v>
+        <v>0.02170943055127462</v>
       </c>
       <c r="E88">
-        <v>0.005519625721045341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.012565754649347</v>
+      </c>
+      <c r="F88">
+        <v>-0.0175376567952166</v>
+      </c>
+      <c r="G88">
+        <v>0.02497618437923278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05221191160944065</v>
+        <v>0.2188537192739097</v>
       </c>
       <c r="C89">
-        <v>0.3359723420668387</v>
+        <v>-0.3711545629006741</v>
       </c>
       <c r="D89">
-        <v>-0.2873261735469609</v>
+        <v>-0.009218656523638397</v>
       </c>
       <c r="E89">
-        <v>-0.0005854480967602745</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02286393936392811</v>
+      </c>
+      <c r="F89">
+        <v>-0.02826091501392547</v>
+      </c>
+      <c r="G89">
+        <v>0.03141790718396579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03960081882751522</v>
+        <v>0.1895323284888423</v>
       </c>
       <c r="C90">
-        <v>0.2478001179903434</v>
+        <v>-0.3371187437534577</v>
       </c>
       <c r="D90">
-        <v>-0.2611061454370257</v>
+        <v>-0.01267530681555797</v>
       </c>
       <c r="E90">
-        <v>0.001931093244962263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004360910728642476</v>
+      </c>
+      <c r="F90">
+        <v>-0.0498774710412212</v>
+      </c>
+      <c r="G90">
+        <v>-0.002737989913011129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00290799854461155</v>
+        <v>0.2079018421925596</v>
       </c>
       <c r="C91">
-        <v>0.1943719436041024</v>
+        <v>0.1368509708801511</v>
       </c>
       <c r="D91">
-        <v>0.2173397867506303</v>
+        <v>-0.02527684764397212</v>
       </c>
       <c r="E91">
-        <v>0.03879020443646865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08352205815519954</v>
+      </c>
+      <c r="F91">
+        <v>-0.1835624631717861</v>
+      </c>
+      <c r="G91">
+        <v>0.0002688688858818568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.005817576522545056</v>
+        <v>0.2016763698041107</v>
       </c>
       <c r="C92">
-        <v>0.3260376356696456</v>
+        <v>-0.2612215020062904</v>
       </c>
       <c r="D92">
-        <v>-0.1359786579264962</v>
+        <v>-0.05057189379536688</v>
       </c>
       <c r="E92">
-        <v>0.008451055639293608</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.001063923031622286</v>
+      </c>
+      <c r="F92">
+        <v>-0.1177536952000916</v>
+      </c>
+      <c r="G92">
+        <v>0.06563514005515375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03670577620811887</v>
+        <v>0.2146093988415134</v>
       </c>
       <c r="C93">
-        <v>0.2866970318694933</v>
+        <v>-0.3360956742836676</v>
       </c>
       <c r="D93">
-        <v>-0.2634074315375727</v>
+        <v>-0.01961111264847962</v>
       </c>
       <c r="E93">
-        <v>0.02383902422752672</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005303574457807173</v>
+      </c>
+      <c r="F93">
+        <v>-0.02574250845843025</v>
+      </c>
+      <c r="G93">
+        <v>0.0003229278559477656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01862553039211191</v>
+        <v>0.2905910744119065</v>
       </c>
       <c r="C94">
-        <v>0.2415466484347544</v>
+        <v>0.1602694607057198</v>
       </c>
       <c r="D94">
-        <v>0.2105769496833731</v>
+        <v>-0.0148694471158932</v>
       </c>
       <c r="E94">
-        <v>0.0884475582819924</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.105979698394868</v>
+      </c>
+      <c r="F94">
+        <v>-0.4249482280972845</v>
+      </c>
+      <c r="G94">
+        <v>-0.134433584485218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006846455619379241</v>
+        <v>0.07876079449021967</v>
       </c>
       <c r="C95">
-        <v>0.04522729333387618</v>
+        <v>0.0770367205940465</v>
       </c>
       <c r="D95">
-        <v>0.07257313226295807</v>
+        <v>-0.00624190294256421</v>
       </c>
       <c r="E95">
-        <v>0.120203384055194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.062337098644124</v>
+      </c>
+      <c r="F95">
+        <v>0.1851024636905281</v>
+      </c>
+      <c r="G95">
+        <v>-0.04978533200283517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.003959912647025839</v>
+        <v>0.2064426340727134</v>
       </c>
       <c r="C98">
-        <v>0.1697426512103176</v>
+        <v>0.04470871546862869</v>
       </c>
       <c r="D98">
-        <v>0.1028808931108657</v>
+        <v>-0.01639160055848167</v>
       </c>
       <c r="E98">
-        <v>0.0748840525424368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05904771650664474</v>
+      </c>
+      <c r="F98">
+        <v>0.256627100784043</v>
+      </c>
+      <c r="G98">
+        <v>-0.03701912538736432</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006986026233672379</v>
+        <v>0.01369458496858949</v>
       </c>
       <c r="C101">
-        <v>0.01945571896399692</v>
+        <v>0.02048455153406681</v>
       </c>
       <c r="D101">
-        <v>0.01525341379793924</v>
+        <v>0.006956901952190091</v>
       </c>
       <c r="E101">
-        <v>-0.005120167059492959</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.005507143061661069</v>
+      </c>
+      <c r="F101">
+        <v>-0.01518431163749357</v>
+      </c>
+      <c r="G101">
+        <v>0.0301825312527799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01287442458190455</v>
+        <v>0.1226799875636957</v>
       </c>
       <c r="C102">
-        <v>0.1145231318190532</v>
+        <v>0.08071032512096162</v>
       </c>
       <c r="D102">
-        <v>0.113202076131982</v>
+        <v>0.0003350406676423265</v>
       </c>
       <c r="E102">
-        <v>0.02920409159185709</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03952300112860149</v>
+      </c>
+      <c r="F102">
+        <v>-0.05098793564042325</v>
+      </c>
+      <c r="G102">
+        <v>-0.009367230547290727</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001901278667414176</v>
+        <v>0.004322573996574354</v>
       </c>
       <c r="C103">
-        <v>0.01744436463456426</v>
+        <v>0.005054927741121495</v>
       </c>
       <c r="D103">
-        <v>0.02668902908176662</v>
+        <v>0.0005477307854238501</v>
       </c>
       <c r="E103">
-        <v>-0.01137032885557954</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0008074630376660372</v>
+      </c>
+      <c r="F103">
+        <v>-0.008888519326419823</v>
+      </c>
+      <c r="G103">
+        <v>0.01788705483498751</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9860996789129466</v>
+        <v>0.0368472909861227</v>
       </c>
       <c r="C104">
-        <v>-0.09473693403317361</v>
+        <v>-0.04439253558833728</v>
       </c>
       <c r="D104">
-        <v>0.005195935024914111</v>
+        <v>0.9867583295533928</v>
       </c>
       <c r="E104">
-        <v>-0.02624290059477342</v>
+        <v>0.04288962081666739</v>
+      </c>
+      <c r="F104">
+        <v>-0.04195462158055949</v>
+      </c>
+      <c r="G104">
+        <v>-0.004297183040847656</v>
       </c>
     </row>
   </sheetData>
